--- a/data/recode_vals.xlsx
+++ b/data/recode_vals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\noveno semestre\big data\BDML_ProblemSet2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF915B0-EA38-40CC-8E5B-FF22DB83CC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E69AF3-D323-4F48-B25C-C0C2412D39F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4CF693E3-A905-4F39-A989-15EF14D00A79}"/>
+    <workbookView xWindow="24330" yWindow="6150" windowWidth="7500" windowHeight="6000" xr2:uid="{4CF693E3-A905-4F39-A989-15EF14D00A79}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -486,7 +486,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
